--- a/Metadata/TB Omni Report Template.xlsx
+++ b/Metadata/TB Omni Report Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mbasa.Njomane\OneDrive - Desmond Tutu HIV Research Foundation\Documents\R Projects DTHF\TB-Omni\Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://desmondtutuhivre-my.sharepoint.com/personal/mbasa_njomane_hiv-research_org_za/Documents/Documents/R Projects DTHF/TB-Omni/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBBB8DF-300B-4B82-AE95-E0247A6850CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{4FBBB8DF-300B-4B82-AE95-E0247A6850CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07191120-A7AD-4671-8396-3C8FCFE071A7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="636" xr2:uid="{98EC54E8-8BBE-4A34-8647-A8FA65B28CA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="636" xr2:uid="{98EC54E8-8BBE-4A34-8647-A8FA65B28CA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consort Chart" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="108">
   <si>
     <t>Index Approach</t>
   </si>
@@ -340,6 +340,27 @@
   </si>
   <si>
     <t xml:space="preserve">Refused Consent </t>
+  </si>
+  <si>
+    <t>Swab +</t>
+  </si>
+  <si>
+    <t>Swab -</t>
+  </si>
+  <si>
+    <t>Sputum +</t>
+  </si>
+  <si>
+    <t>Sputum -</t>
+  </si>
+  <si>
+    <t>Sputum vs Single Swab</t>
+  </si>
+  <si>
+    <t>Sputum vs Two Pooled Swab</t>
+  </si>
+  <si>
+    <t>Sputum vs Three Pooled Swab</t>
   </si>
 </sst>
 </file>
@@ -684,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -841,6 +862,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2602,6 +2626,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2924,10 +2952,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="E5:U95"/>
+  <dimension ref="E5:U104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R84" sqref="R84:S84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3449,7 +3477,7 @@
       </c>
       <c r="M54" s="16" t="str">
         <f>""&amp;Data!B38&amp;"("&amp;TEXT(Data!C38,"0%")&amp;")"</f>
-        <v>1(100%)</v>
+        <v>2(200%)</v>
       </c>
     </row>
     <row r="55" spans="7:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -3508,7 +3536,7 @@
       </c>
       <c r="M61" s="16" t="str">
         <f>""&amp;Data!B42&amp;"("&amp;TEXT(Data!C42,"0%")&amp;")"</f>
-        <v>1(100%)</v>
+        <v>1(50%)</v>
       </c>
     </row>
     <row r="62" spans="7:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -3774,16 +3802,34 @@
       <c r="U79" s="9"/>
     </row>
     <row r="80" spans="5:21" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="11:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="86" spans="11:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="R84" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="S84" s="72"/>
+    </row>
+    <row r="85" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R85" t="s">
+        <v>103</v>
+      </c>
+      <c r="S85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K86" s="39" t="s">
         <v>53</v>
       </c>
       <c r="L86" s="40"/>
       <c r="M86" s="41"/>
       <c r="N86" s="28"/>
-    </row>
-    <row r="87" spans="11:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q86" t="s">
+        <v>101</v>
+      </c>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K87" s="69" t="str">
         <f>""&amp;Data!B83&amp;"("&amp;TEXT(Data!C83,"0%")&amp;")"</f>
         <v>1(100%)</v>
@@ -3791,15 +3837,20 @@
       <c r="L87" s="70"/>
       <c r="M87" s="71"/>
       <c r="N87" s="28"/>
-    </row>
-    <row r="88" spans="11:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="Q87" t="s">
+        <v>102</v>
+      </c>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="11:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="K88" s="28"/>
       <c r="L88" s="29"/>
       <c r="M88" s="28"/>
       <c r="N88" s="28"/>
     </row>
-    <row r="89" spans="11:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="90" spans="11:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="90" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N90" s="30" t="s">
         <v>88</v>
       </c>
@@ -3808,15 +3859,15 @@
         <v>1(50%)</v>
       </c>
     </row>
-    <row r="91" spans="11:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="92" spans="11:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="92" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L92" s="56" t="s">
         <v>54</v>
       </c>
       <c r="M92" s="57"/>
       <c r="N92" s="58"/>
     </row>
-    <row r="93" spans="11:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L93" s="18" t="s">
         <v>79</v>
       </c>
@@ -3826,8 +3877,12 @@
       <c r="N93" s="44" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="94" spans="11:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R93" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="S93" s="72"/>
+    </row>
+    <row r="94" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L94" s="16" t="str">
         <f>""&amp;Data!B86&amp;"("&amp;TEXT(Data!C86,"0%")&amp;")"</f>
         <v>1(100%)</v>
@@ -3840,16 +3895,66 @@
         <f>""&amp;Data!B88&amp;"("&amp;TEXT(Data!C88,"0%")&amp;")"</f>
         <v>1(50%)</v>
       </c>
-    </row>
-    <row r="95" spans="11:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="R94" t="s">
+        <v>103</v>
+      </c>
+      <c r="S94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="11:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="Q95" t="s">
+        <v>101</v>
+      </c>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="11:19" x14ac:dyDescent="0.35">
+      <c r="Q96" t="s">
+        <v>102</v>
+      </c>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+    </row>
+    <row r="101" spans="17:19" x14ac:dyDescent="0.35">
+      <c r="R101" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="S101" s="72"/>
+    </row>
+    <row r="102" spans="17:19" x14ac:dyDescent="0.35">
+      <c r="R102" t="s">
+        <v>103</v>
+      </c>
+      <c r="S102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="17:19" x14ac:dyDescent="0.35">
+      <c r="Q103" t="s">
+        <v>101</v>
+      </c>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="17:19" x14ac:dyDescent="0.35">
+      <c r="Q104" t="s">
+        <v>102</v>
+      </c>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="R101:S101"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="R65:S65"/>
     <mergeCell ref="K87:M87"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="L27:M27"/>
+    <mergeCell ref="R84:S84"/>
     <mergeCell ref="L92:N92"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="L21:M21"/>
@@ -3871,8 +3976,8 @@
   </sheetPr>
   <dimension ref="A2:C101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4264,11 +4369,12 @@
         <v>32</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <f>B39+B42</f>
+        <v>2</v>
       </c>
       <c r="C38" s="7">
         <f>B38/B19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -4300,7 +4406,7 @@
       </c>
       <c r="C42" s="7">
         <f>B42/B38</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">

--- a/Metadata/TB Omni Report Template.xlsx
+++ b/Metadata/TB Omni Report Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://desmondtutuhivre-my.sharepoint.com/personal/mbasa_njomane_hiv-research_org_za/Documents/Documents/R Projects DTHF/TB-Omni/Metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuhle.Fiphaza\Documents\R Projects\TB-OMNI\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{4FBBB8DF-300B-4B82-AE95-E0247A6850CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07191120-A7AD-4671-8396-3C8FCFE071A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B4E19-45DC-4CC5-A657-9663E1C54D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="636" xr2:uid="{98EC54E8-8BBE-4A34-8647-A8FA65B28CA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="636" activeTab="1" xr2:uid="{98EC54E8-8BBE-4A34-8647-A8FA65B28CA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consort Chart" sheetId="2" r:id="rId1"/>
@@ -814,31 +814,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -862,7 +838,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2626,10 +2626,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2954,7 +2950,7 @@
   </sheetPr>
   <dimension ref="E5:U104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R84" sqref="R84:S84"/>
     </sheetView>
   </sheetViews>
@@ -2977,20 +2973,20 @@
   <sheetData>
     <row r="5" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="62"/>
+      <c r="M6" s="65"/>
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L7" s="63">
+      <c r="L7" s="66">
         <f>Data!B3</f>
         <v>1</v>
       </c>
-      <c r="M7" s="64"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
@@ -3024,20 +3020,20 @@
       <c r="P11" s="28"/>
     </row>
     <row r="12" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="62"/>
+      <c r="M12" s="65"/>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
     </row>
     <row r="13" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L13" s="63" t="str">
+      <c r="L13" s="66" t="str">
         <f>""&amp;Data!B4&amp;"("&amp;TEXT(Data!C4,"0%")&amp;")"</f>
         <v>1(100%)</v>
       </c>
-      <c r="M13" s="64"/>
+      <c r="M13" s="67"/>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
@@ -3121,20 +3117,20 @@
       <c r="P20" s="28"/>
     </row>
     <row r="21" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L21" s="61" t="s">
+      <c r="L21" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="62"/>
+      <c r="M21" s="65"/>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
     </row>
     <row r="22" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L22" s="69" t="str">
+      <c r="L22" s="61" t="str">
         <f>""&amp;Data!B11&amp;"("&amp;TEXT(Data!C11,"0%")&amp;")"</f>
         <v>1(100%)</v>
       </c>
-      <c r="M22" s="71"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
@@ -3161,20 +3157,20 @@
       <c r="P25" s="28"/>
     </row>
     <row r="26" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L26" s="61" t="s">
+      <c r="L26" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="62"/>
+      <c r="M26" s="65"/>
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
     </row>
     <row r="27" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L27" s="63" t="str">
+      <c r="L27" s="66" t="str">
         <f>""&amp;Data!B13&amp;"("&amp;TEXT(Data!C13,"0%")&amp;")"</f>
         <v>1(100%)</v>
       </c>
-      <c r="M27" s="64"/>
+      <c r="M27" s="67"/>
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
@@ -3566,10 +3562,10 @@
       <c r="N65" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R65" s="67" t="s">
+      <c r="R65" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="S65" s="68"/>
+      <c r="S65" s="60"/>
     </row>
     <row r="66" spans="5:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K66" s="16" t="str">
@@ -3704,10 +3700,10 @@
     </row>
     <row r="76" spans="5:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="77" spans="5:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G77" s="59" t="s">
+      <c r="G77" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="H77" s="60"/>
+      <c r="H77" s="72"/>
       <c r="I77" s="29"/>
       <c r="J77" s="21"/>
       <c r="K77" s="32" t="s">
@@ -3721,10 +3717,10 @@
       <c r="O77" s="35"/>
       <c r="P77" s="28"/>
       <c r="Q77" s="28"/>
-      <c r="R77" s="65" t="s">
+      <c r="R77" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="S77" s="66"/>
+      <c r="S77" s="58"/>
     </row>
     <row r="78" spans="5:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F78" s="13"/>
@@ -3803,10 +3799,10 @@
     </row>
     <row r="80" spans="5:21" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="R84" s="72" t="s">
+      <c r="R84" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="S84" s="72"/>
+      <c r="S84" s="56"/>
     </row>
     <row r="85" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="R85" t="s">
@@ -3830,12 +3826,12 @@
       <c r="S86" s="1"/>
     </row>
     <row r="87" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K87" s="69" t="str">
+      <c r="K87" s="61" t="str">
         <f>""&amp;Data!B83&amp;"("&amp;TEXT(Data!C83,"0%")&amp;")"</f>
         <v>1(100%)</v>
       </c>
-      <c r="L87" s="70"/>
-      <c r="M87" s="71"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="63"/>
       <c r="N87" s="28"/>
       <c r="Q87" t="s">
         <v>102</v>
@@ -3861,11 +3857,11 @@
     </row>
     <row r="91" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="92" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L92" s="56" t="s">
+      <c r="L92" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="M92" s="57"/>
-      <c r="N92" s="58"/>
+      <c r="M92" s="69"/>
+      <c r="N92" s="70"/>
     </row>
     <row r="93" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L93" s="18" t="s">
@@ -3877,10 +3873,10 @@
       <c r="N93" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="R93" s="72" t="s">
+      <c r="R93" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="S93" s="72"/>
+      <c r="S93" s="56"/>
     </row>
     <row r="94" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L94" s="16" t="str">
@@ -3917,10 +3913,10 @@
       <c r="S96" s="1"/>
     </row>
     <row r="101" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="R101" s="72" t="s">
+      <c r="R101" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="S101" s="72"/>
+      <c r="S101" s="56"/>
     </row>
     <row r="102" spans="17:19" x14ac:dyDescent="0.35">
       <c r="R102" t="s">
@@ -3946,22 +3942,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="L92:N92"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="K87:M87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3976,8 +3972,8 @@
   </sheetPr>
   <dimension ref="A2:C101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4525,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="7">
-        <f>B54/B53</f>
+        <f>B54/B48</f>
         <v>1</v>
       </c>
     </row>
@@ -4537,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="7">
-        <f>B55/B53</f>
+        <f>B55/B48</f>
         <v>1</v>
       </c>
     </row>
@@ -4549,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="7">
-        <f>B56/B53</f>
+        <f>B56/B48</f>
         <v>1</v>
       </c>
     </row>

--- a/Metadata/TB Omni Report Template.xlsx
+++ b/Metadata/TB Omni Report Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuhle.Fiphaza\Documents\R Projects\TB-OMNI\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B4E19-45DC-4CC5-A657-9663E1C54D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CF191C-D943-4E5C-89CE-230371E6B96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="636" activeTab="1" xr2:uid="{98EC54E8-8BBE-4A34-8647-A8FA65B28CA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="636" xr2:uid="{98EC54E8-8BBE-4A34-8647-A8FA65B28CA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consort Chart" sheetId="2" r:id="rId1"/>
@@ -814,7 +814,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,40 +862,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2950,8 +2950,8 @@
   </sheetPr>
   <dimension ref="E5:U104"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R84" sqref="R84:S84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2973,20 +2973,20 @@
   <sheetData>
     <row r="5" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="65"/>
+      <c r="M6" s="59"/>
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L7" s="66">
+      <c r="L7" s="60">
         <f>Data!B3</f>
         <v>1</v>
       </c>
-      <c r="M7" s="67"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
@@ -3020,20 +3020,20 @@
       <c r="P11" s="28"/>
     </row>
     <row r="12" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="65"/>
+      <c r="M12" s="59"/>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
     </row>
     <row r="13" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L13" s="66" t="str">
+      <c r="L13" s="60" t="str">
         <f>""&amp;Data!B4&amp;"("&amp;TEXT(Data!C4,"0%")&amp;")"</f>
         <v>1(100%)</v>
       </c>
-      <c r="M13" s="67"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
@@ -3117,16 +3117,16 @@
       <c r="P20" s="28"/>
     </row>
     <row r="21" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L21" s="64" t="s">
+      <c r="L21" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="65"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
     </row>
     <row r="22" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L22" s="61" t="str">
+      <c r="L22" s="62" t="str">
         <f>""&amp;Data!B11&amp;"("&amp;TEXT(Data!C11,"0%")&amp;")"</f>
         <v>1(100%)</v>
       </c>
@@ -3157,20 +3157,20 @@
       <c r="P25" s="28"/>
     </row>
     <row r="26" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L26" s="64" t="s">
+      <c r="L26" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="65"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
     </row>
     <row r="27" spans="12:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L27" s="66" t="str">
+      <c r="L27" s="60" t="str">
         <f>""&amp;Data!B13&amp;"("&amp;TEXT(Data!C13,"0%")&amp;")"</f>
         <v>1(100%)</v>
       </c>
-      <c r="M27" s="67"/>
+      <c r="M27" s="61"/>
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
@@ -3269,8 +3269,8 @@
         <v>77</v>
       </c>
       <c r="H36" s="27">
-        <f>Data!B8</f>
-        <v>1</v>
+        <f>Data!B21</f>
+        <v>0</v>
       </c>
       <c r="L36" s="29"/>
       <c r="M36" s="28"/>
@@ -3562,10 +3562,10 @@
       <c r="N65" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R65" s="59" t="s">
+      <c r="R65" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="S65" s="60"/>
+      <c r="S65" s="71"/>
     </row>
     <row r="66" spans="5:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K66" s="16" t="str">
@@ -3700,10 +3700,10 @@
     </row>
     <row r="76" spans="5:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="77" spans="5:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G77" s="71" t="s">
+      <c r="G77" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="H77" s="72"/>
+      <c r="H77" s="57"/>
       <c r="I77" s="29"/>
       <c r="J77" s="21"/>
       <c r="K77" s="32" t="s">
@@ -3717,10 +3717,10 @@
       <c r="O77" s="35"/>
       <c r="P77" s="28"/>
       <c r="Q77" s="28"/>
-      <c r="R77" s="57" t="s">
+      <c r="R77" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="S77" s="58"/>
+      <c r="S77" s="69"/>
     </row>
     <row r="78" spans="5:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F78" s="13"/>
@@ -3799,10 +3799,10 @@
     </row>
     <row r="80" spans="5:21" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="11:19" x14ac:dyDescent="0.35">
-      <c r="R84" s="56" t="s">
+      <c r="R84" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="S84" s="56"/>
+      <c r="S84" s="64"/>
     </row>
     <row r="85" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="R85" t="s">
@@ -3826,11 +3826,11 @@
       <c r="S86" s="1"/>
     </row>
     <row r="87" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K87" s="61" t="str">
+      <c r="K87" s="62" t="str">
         <f>""&amp;Data!B83&amp;"("&amp;TEXT(Data!C83,"0%")&amp;")"</f>
         <v>1(100%)</v>
       </c>
-      <c r="L87" s="62"/>
+      <c r="L87" s="72"/>
       <c r="M87" s="63"/>
       <c r="N87" s="28"/>
       <c r="Q87" t="s">
@@ -3857,11 +3857,11 @@
     </row>
     <row r="91" spans="11:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="92" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L92" s="68" t="s">
+      <c r="L92" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="M92" s="69"/>
-      <c r="N92" s="70"/>
+      <c r="M92" s="66"/>
+      <c r="N92" s="67"/>
     </row>
     <row r="93" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L93" s="18" t="s">
@@ -3873,10 +3873,10 @@
       <c r="N93" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="R93" s="56" t="s">
+      <c r="R93" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="S93" s="56"/>
+      <c r="S93" s="64"/>
     </row>
     <row r="94" spans="11:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L94" s="16" t="str">
@@ -3913,10 +3913,10 @@
       <c r="S96" s="1"/>
     </row>
     <row r="101" spans="17:19" x14ac:dyDescent="0.35">
-      <c r="R101" s="56" t="s">
+      <c r="R101" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="S101" s="56"/>
+      <c r="S101" s="64"/>
     </row>
     <row r="102" spans="17:19" x14ac:dyDescent="0.35">
       <c r="R102" t="s">
@@ -3942,6 +3942,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="R77:S77"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L6:M6"/>
@@ -3951,13 +3958,6 @@
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="L27:M27"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="K87:M87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3972,8 +3972,8 @@
   </sheetPr>
   <dimension ref="A2:C101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
